--- a/docs/테스트케이스.xlsx
+++ b/docs/테스트케이스.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\S07P22A708\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="155">
   <si>
     <t>TEST CASE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -145,21 +145,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>민균(O)</t>
-  </si>
-  <si>
-    <t>민균(O)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정으로감</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임 필수변경</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[2] 스타</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -293,10 +278,6 @@
   </si>
   <si>
     <t xml:space="preserve">해당 스타 커뮤니티 게시글 나옴, 댓글 등록, 좋아요, 댓글 개수 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 댓글 개수 바로 안 올라감</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -350,10 +331,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[4] 사용자 - 사바나 &amp; 챌린지 상세</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -441,10 +418,6 @@
   </si>
   <si>
     <t>해당 영상 자동재생</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>민균 X ㅠㅠ</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -521,183 +494,167 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>내가 좋아요한 챌린지 보여주기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7] 사용자 - 마이페이지 - 설정페이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 설정 관련</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 - 마이페이지 - 설정 - 프로필 편집</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용자 - 마이페이지 우측상단 설정 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 닉네임 사용 가능, 프로필 사진 변경 가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 - 마이페이지 - 설정 - 비밀번호 변경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 - 마이페이지 - 설정 - 로그아웃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8] 챌린지 참여</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 메인페이지 하단탭 가운데 (+) 버튼 클릭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 - (+) 클릭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈 - ( + ) 버튼 클릭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈 - ( + ) 버튼 클릭 -&gt; 상단 챌린지 선택 클릭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중인 챌린지 목록 선택 가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈 - ( + ) 버튼 클릭 -&gt; 상단 챌린지 선택 클릭 -&gt; 진행중인 챌린지 목록 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중인 챌린지 목록 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 음원 세팅, 영상 시간 세팅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 버튼 클릭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 녹화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 버튼 클릭 -&gt; 일시 정지( 재개 )</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 버튼 클릭 -&gt; 다시 찍기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>찍어놓은 영상 초기화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시 정지 / 재개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 버튼 클릭 -&gt; 보내기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 허용 모달</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 촬영 후 보내기 클릭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비디오 클릭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상 재생 / 일시정지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈 - ( + ) 버튼 클릭 -&gt; 촬영 안 하고 보내기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지를 선택해야 합니다 경고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지 등록 페이지로 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 금액 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 토큰보다 많으면 에러</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 금액 입력 X -&gt; 참여하기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기부 금액 입력 O -&gt; 참여하기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드시 홈으로, 성공시 알림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>F</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>해당 스타 챌린지로 가야할듯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 좋아요한 챌린지 보여주기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7] 사용자 - 마이페이지 - 설정페이지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 설정 관련</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 - 마이페이지 - 설정 - 프로필 편집</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">사용자 - 마이페이지 우측상단 설정 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 닉네임 사용 가능, 프로필 사진 변경 가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시 마이페이지 돌아갔을 떄 사진 안 바뀜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 변경 완료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 - 마이페이지 - 설정 - 비밀번호 변경</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 - 마이페이지 - 설정 - 로그아웃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8] 챌린지 참여</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 메인페이지 하단탭 가운데 (+) 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 - (+) 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈 - ( + ) 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈 - ( + ) 버튼 클릭 -&gt; 상단 챌린지 선택 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중인 챌린지 목록 선택 가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈 - ( + ) 버튼 클릭 -&gt; 상단 챌린지 선택 클릭 -&gt; 진행중인 챌린지 목록 선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중인 챌린지 목록 선택</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 음원 세팅, 영상 시간 세팅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상 버튼 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상 녹화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상 버튼 클릭 -&gt; 일시 정지( 재개 )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상 버튼 클릭 -&gt; 다시 찍기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>찍어놓은 영상 초기화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>일시 정지 / 재개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상 버튼 클릭 -&gt; 보내기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라 허용 모달</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상 촬영 후 보내기 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비디오 클릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상 재생 / 일시정지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈 - ( + ) 버튼 클릭 -&gt; 촬영 안 하고 보내기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>챌린지를 선택해야 합니다 경고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>undefined 뜨고 넘어가는 경우가 있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>챌린지 등록 페이지로 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기부 금액 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>보유 토큰보다 많으면 에러</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기부 금액 입력 X -&gt; 참여하기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기부 금액 입력 O -&gt; 참여하기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>업로드시 홈으로, 성공시 알림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반인 챌린지 클릭 -&gt; 기부 현황 페이지 클릭시 에러</t>
+    <t>수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -983,6 +940,42 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -991,42 +984,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1316,7 +1273,7 @@
   <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1328,30 +1285,30 @@
     <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="27" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" s="26" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -1394,10 +1351,10 @@
       <c r="E7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="F7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
@@ -1412,10 +1369,10 @@
       <c r="E8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="F8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -1430,10 +1387,10 @@
       <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="F9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -1448,10 +1405,10 @@
       <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="F10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -1467,7 +1424,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -1485,13 +1442,13 @@
         <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="G12" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1500,14 +1457,14 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
+      <c r="B16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -1542,15 +1499,17 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -1558,15 +1517,17 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -1574,15 +1535,17 @@
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -1590,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>24</v>
@@ -1598,7 +1561,9 @@
       <c r="E22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
@@ -1606,15 +1571,17 @@
         <v>5</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -1622,15 +1589,17 @@
         <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -1642,24 +1611,24 @@
       <c r="G25" s="14"/>
     </row>
     <row r="27" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="B27" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
+      <c r="B28" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
@@ -1691,187 +1660,203 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="43" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="5" t="s">
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="34"/>
+    </row>
+    <row r="44" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
@@ -1906,15 +1891,17 @@
         <v>1</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
@@ -1922,15 +1909,17 @@
         <v>2</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
@@ -1938,15 +1927,17 @@
         <v>3</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
@@ -1954,15 +1945,17 @@
         <v>4</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
@@ -1970,15 +1963,17 @@
         <v>5</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
@@ -1986,15 +1981,17 @@
         <v>6</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F52" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
@@ -2002,15 +1999,17 @@
         <v>7</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
@@ -2018,15 +2017,17 @@
         <v>8</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
@@ -2034,15 +2035,17 @@
         <v>9</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
@@ -2050,18 +2053,18 @@
         <v>10</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G56" s="5"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="18"/>
@@ -2072,24 +2075,24 @@
       <c r="G57" s="14"/>
     </row>
     <row r="59" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
+      <c r="B59" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="34"/>
     </row>
     <row r="60" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="25"/>
+      <c r="B60" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
@@ -2124,15 +2127,17 @@
         <v>1</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F63" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G63" s="5"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
@@ -2142,24 +2147,24 @@
       <c r="G65" s="14"/>
     </row>
     <row r="66" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
+      <c r="B66" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="34"/>
     </row>
     <row r="67" spans="2:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="25"/>
+      <c r="B67" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="24"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
@@ -2186,15 +2191,17 @@
         <v>1</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F70" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
@@ -2202,15 +2209,17 @@
         <v>2</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F71" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
@@ -2218,15 +2227,17 @@
         <v>3</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F72" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
@@ -2234,35 +2245,37 @@
         <v>4</v>
       </c>
       <c r="C73" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="34">
+      <c r="B74" s="21">
         <v>5</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
@@ -2270,54 +2283,54 @@
         <v>6</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>122</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
         <v>7</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F76" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G76" s="5"/>
     </row>
     <row r="79" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="22"/>
+      <c r="B79" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="34"/>
     </row>
     <row r="80" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="25"/>
+      <c r="B80" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="24"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
@@ -2344,35 +2357,35 @@
         <v>1</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G83" s="5"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="4">
         <v>2</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E84" t="s">
-        <v>131</v>
-      </c>
-      <c r="F84" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G84" s="5"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
@@ -2380,23 +2393,23 @@
         <v>3</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="18"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="14"/>
       <c r="F86" s="18"/>
       <c r="G86" s="14"/>
@@ -2405,24 +2418,24 @@
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="22"/>
+      <c r="B88" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="34"/>
     </row>
     <row r="89" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="25"/>
+      <c r="B89" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="24"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
@@ -2449,15 +2462,17 @@
         <v>1</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F92" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G92" s="5"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
@@ -2465,35 +2480,35 @@
         <v>2</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>158</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
         <v>3</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F94" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G94" s="5"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
@@ -2501,15 +2516,17 @@
         <v>4</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F95" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G95" s="5"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
@@ -2517,15 +2534,17 @@
         <v>5</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F96" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -2533,15 +2552,17 @@
         <v>6</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F97" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -2549,15 +2570,17 @@
         <v>7</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F98" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -2565,15 +2588,17 @@
         <v>8</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F99" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -2581,49 +2606,55 @@
         <v>9</v>
       </c>
       <c r="C100" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B101" s="21">
+        <v>10</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="G101" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F100" s="4"/>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B101" s="34">
-        <v>10</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B102" s="4">
         <v>11</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F102" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -2631,15 +2662,17 @@
         <v>12</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F103" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="G103" s="5"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -2814,6 +2847,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B105:G105"/>
     <mergeCell ref="B67:G67"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="B3:G3"/>
@@ -2826,11 +2864,6 @@
     <mergeCell ref="B59:G59"/>
     <mergeCell ref="B60:G60"/>
     <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B105:G105"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
